--- a/data/template/eudl_template.xlsx
+++ b/data/template/eudl_template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Role Mapping New Deployment Template</t>
   </si>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t>Optional Field 20</t>
+  </si>
+  <si>
+    <t>nguyae</t>
+  </si>
+  <si>
+    <t>ANH</t>
+  </si>
+  <si>
+    <t>NGUYEN</t>
+  </si>
+  <si>
+    <t>anh.nguyen@c-mg.com</t>
+  </si>
+  <si>
+    <t>GWO(wells)</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>NIgel</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Project Development Manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
   </si>
 </sst>
 </file>
@@ -662,7 +701,7 @@
   <dimension ref="A1:AK235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -873,7 +912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="4" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -913,9 +952,57 @@
       <c r="AK4" s="11"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="E5" s="12"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>89820</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:37">
       <c r="E6" s="12"/>
@@ -2054,6 +2141,9 @@
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:AK2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/template/eudl_template.xlsx
+++ b/data/template/eudl_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1530" windowWidth="14340" windowHeight="6015"/>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Template'!$A$4:$BE$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Template'!$A$4:$BH$4</definedName>
     <definedName name="Directors">[1]Definitions!$B$75:$C$96</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Role Mapping Template'!#REF!</definedName>
     <definedName name="HML">[2]Data!$B$2:$B$4</definedName>
@@ -23,12 +23,12 @@
     <definedName name="Type">[3]Data!$A$1:$A$4</definedName>
     <definedName name="YN">[2]Data!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Job Title</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Optional Field 35</t>
+  </si>
+  <si>
+    <t>Day1 User</t>
+  </si>
+  <si>
+    <t>Course Requirements</t>
+  </si>
+  <si>
+    <t>NTR</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1165,7 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:BE235"/>
+  <dimension ref="A1:BH235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1166,10 +1175,12 @@
   <cols>
     <col min="1" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="22" width="9.140625" style="1"/>
+    <col min="23" max="25" width="9" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="6" customHeight="1">
+    <row r="1" spans="1:60" ht="6" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -1229,8 +1240,11 @@
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11"/>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1290,8 +1304,11 @@
       <c r="BC2" s="15"/>
       <c r="BD2" s="15"/>
       <c r="BE2" s="15"/>
-    </row>
-    <row r="3" spans="1:57" s="2" customFormat="1" ht="173.25" thickBot="1">
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+    </row>
+    <row r="3" spans="1:60" s="2" customFormat="1" ht="173.25" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1358,113 +1375,122 @@
       <c r="V3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AR3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AU3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="BA3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="BB3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="BC3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BD3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BE3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BF3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BG3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BH3" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="2" customFormat="1" ht="13.5" thickBot="1">
+    <row r="4" spans="1:60" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1487,9 +1513,9 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -1522,41 +1548,44 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+    </row>
+    <row r="5" spans="1:60">
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:60">
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:60">
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:60">
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:60">
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:60">
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:60">
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:60">
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:60">
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:60">
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:60">
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:60">
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="17:17">
@@ -2217,10 +2246,10 @@
       <c r="Q235" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BE4"/>
+  <autoFilter ref="A4:BH4"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:BE2"/>
+    <mergeCell ref="A2:BH2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2239,11 +2268,119 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </dd96fca6772e4867a9208609779574a7>
+    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </b249b6a8f62b4bc7904c2f5bc1687ac3>
+    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n3dcd34f14d14173a15c5e7b17b9407e>
+    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </cc14bf1737424455b1020a98eb93ddb0>
+    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId/>
+        <AccountType/>
+      </UserInfo>
+    </Content_x0020_Owner>
+    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o3583a83cab34062a8e9cec91a8b96c2>
+    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </pbcd3bbf9c184baca9fdd3a5eb53df48>
+    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </b5489ffb3a31468a843bf304fbb03bd4>
+    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </a2560a1fc8734eaea64c5ed5193c1f4f>
+    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b28cb21585424c81a811c4e1bc4c5a60>
+    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Draft</BB_x0020_Status>
+    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1d8d357f45743ed94acc3dfcbbb143b>
+    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </p7f54e0c5c724ee0984058454c0cb3e3>
+    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </he3cc7de101a4b15bc22e4e03cb53b52>
+    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f39c3348ff15467a8f593fbefec55be7>
+    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
+      <Value>253</Value>
+      <Value>222</Value>
+      <Value>100</Value>
+      <Value>275</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2607,117 +2744,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </dd96fca6772e4867a9208609779574a7>
-    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </b249b6a8f62b4bc7904c2f5bc1687ac3>
-    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n3dcd34f14d14173a15c5e7b17b9407e>
-    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </cc14bf1737424455b1020a98eb93ddb0>
-    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId/>
-        <AccountType/>
-      </UserInfo>
-    </Content_x0020_Owner>
-    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o3583a83cab34062a8e9cec91a8b96c2>
-    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </pbcd3bbf9c184baca9fdd3a5eb53df48>
-    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </b5489ffb3a31468a843bf304fbb03bd4>
-    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </a2560a1fc8734eaea64c5ed5193c1f4f>
-    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b28cb21585424c81a811c4e1bc4c5a60>
-    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Draft</BB_x0020_Status>
-    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1d8d357f45743ed94acc3dfcbbb143b>
-    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </p7f54e0c5c724ee0984058454c0cb3e3>
-    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </he3cc7de101a4b15bc22e4e03cb53b52>
-    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f39c3348ff15467a8f593fbefec55be7>
-    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
-      <Value>253</Value>
-      <Value>222</Value>
-      <Value>100</Value>
-      <Value>275</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2729,14 +2758,41 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5C0CF-6B47-4237-A1D9-8B4489C2564B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF8F863-970A-43A6-B22E-CCAF24337F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2757,37 +2813,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5C0CF-6B47-4237-A1D9-8B4489C2564B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/template/eudl_template.xlsx
+++ b/data/template/eudl_template.xlsx
@@ -2268,119 +2268,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </dd96fca6772e4867a9208609779574a7>
-    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </b249b6a8f62b4bc7904c2f5bc1687ac3>
-    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n3dcd34f14d14173a15c5e7b17b9407e>
-    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </cc14bf1737424455b1020a98eb93ddb0>
-    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId/>
-        <AccountType/>
-      </UserInfo>
-    </Content_x0020_Owner>
-    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o3583a83cab34062a8e9cec91a8b96c2>
-    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </pbcd3bbf9c184baca9fdd3a5eb53df48>
-    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </b5489ffb3a31468a843bf304fbb03bd4>
-    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </a2560a1fc8734eaea64c5ed5193c1f4f>
-    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b28cb21585424c81a811c4e1bc4c5a60>
-    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Draft</BB_x0020_Status>
-    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1d8d357f45743ed94acc3dfcbbb143b>
-    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </p7f54e0c5c724ee0984058454c0cb3e3>
-    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </he3cc7de101a4b15bc22e4e03cb53b52>
-    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f39c3348ff15467a8f593fbefec55be7>
-    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
-      <Value>253</Value>
-      <Value>222</Value>
-      <Value>100</Value>
-      <Value>275</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2744,9 +2636,117 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </dd96fca6772e4867a9208609779574a7>
+    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </b249b6a8f62b4bc7904c2f5bc1687ac3>
+    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n3dcd34f14d14173a15c5e7b17b9407e>
+    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </cc14bf1737424455b1020a98eb93ddb0>
+    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId/>
+        <AccountType/>
+      </UserInfo>
+    </Content_x0020_Owner>
+    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o3583a83cab34062a8e9cec91a8b96c2>
+    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </pbcd3bbf9c184baca9fdd3a5eb53df48>
+    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </b5489ffb3a31468a843bf304fbb03bd4>
+    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </a2560a1fc8734eaea64c5ed5193c1f4f>
+    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b28cb21585424c81a811c4e1bc4c5a60>
+    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Draft</BB_x0020_Status>
+    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1d8d357f45743ed94acc3dfcbbb143b>
+    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </p7f54e0c5c724ee0984058454c0cb3e3>
+    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </he3cc7de101a4b15bc22e4e03cb53b52>
+    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f39c3348ff15467a8f593fbefec55be7>
+    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
+      <Value>253</Value>
+      <Value>222</Value>
+      <Value>100</Value>
+      <Value>275</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2758,41 +2758,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5C0CF-6B47-4237-A1D9-8B4489C2564B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF8F863-970A-43A6-B22E-CCAF24337F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2813,10 +2786,37 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5C0CF-6B47-4237-A1D9-8B4489C2564B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>